--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Npy</t>
+  </si>
+  <si>
+    <t>Fap</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Npy</t>
-  </si>
-  <si>
-    <t>Fap</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H2">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I2">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.144859</v>
+        <v>2.268247</v>
       </c>
       <c r="N2">
-        <v>6.434577</v>
+        <v>6.804741</v>
       </c>
       <c r="O2">
-        <v>0.01238161622251906</v>
+        <v>0.01306479220856099</v>
       </c>
       <c r="P2">
-        <v>0.01238161622251906</v>
+        <v>0.01306479220856099</v>
       </c>
       <c r="Q2">
-        <v>1.442683640016</v>
+        <v>1.948982161762</v>
       </c>
       <c r="R2">
-        <v>12.984152760144</v>
+        <v>17.540839455858</v>
       </c>
       <c r="S2">
-        <v>0.006474484231382612</v>
+        <v>0.01306479220856099</v>
       </c>
       <c r="T2">
-        <v>0.006474484231382612</v>
+        <v>0.01306479220856099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H3">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I3">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>467.835923</v>
       </c>
       <c r="O3">
-        <v>0.9002246540361518</v>
+        <v>0.8982236240431984</v>
       </c>
       <c r="P3">
-        <v>0.9002246540361518</v>
+        <v>0.8982236240431984</v>
       </c>
       <c r="Q3">
-        <v>104.892556623984</v>
+        <v>133.9953818313527</v>
       </c>
       <c r="R3">
-        <v>944.033009615856</v>
+        <v>1205.958436482174</v>
       </c>
       <c r="S3">
-        <v>0.4707374402913866</v>
+        <v>0.8982236240431984</v>
       </c>
       <c r="T3">
-        <v>0.4707374402913866</v>
+        <v>0.8982236240431984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H4">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I4">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.315788</v>
+        <v>14.59583433333333</v>
       </c>
       <c r="N4">
-        <v>36.947364</v>
+        <v>43.787503</v>
       </c>
       <c r="O4">
-        <v>0.07109528434918362</v>
+        <v>0.08407000766476505</v>
       </c>
       <c r="P4">
-        <v>0.07109528434918362</v>
+        <v>0.08407000766476504</v>
       </c>
       <c r="Q4">
-        <v>8.283894587712</v>
+        <v>12.54141226757934</v>
       </c>
       <c r="R4">
-        <v>74.555051289408</v>
+        <v>112.872710408214</v>
       </c>
       <c r="S4">
-        <v>0.03717651146441384</v>
+        <v>0.08407000766476505</v>
       </c>
       <c r="T4">
-        <v>0.03717651146441384</v>
+        <v>0.08407000766476504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.672624</v>
+        <v>0.8592460000000001</v>
       </c>
       <c r="H5">
-        <v>2.017872</v>
+        <v>2.577738</v>
       </c>
       <c r="I5">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5229110735646243</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.823368666666667</v>
+        <v>0.8058483333333332</v>
       </c>
       <c r="N5">
-        <v>8.470105999999999</v>
+        <v>2.417545</v>
       </c>
       <c r="O5">
-        <v>0.0162984453921456</v>
+        <v>0.00464157608347556</v>
       </c>
       <c r="P5">
-        <v>0.0162984453921456</v>
+        <v>0.004641576083475561</v>
       </c>
       <c r="Q5">
-        <v>1.899065526048</v>
+        <v>0.6924219570233332</v>
       </c>
       <c r="R5">
-        <v>17.091589734432</v>
+        <v>6.231797613209999</v>
       </c>
       <c r="S5">
-        <v>0.008522637577441261</v>
+        <v>0.00464157608347556</v>
       </c>
       <c r="T5">
-        <v>0.008522637577441259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.841048</v>
-      </c>
-      <c r="I6">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J6">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.144859</v>
-      </c>
-      <c r="N6">
-        <v>6.434577</v>
-      </c>
-      <c r="O6">
-        <v>0.01238161622251906</v>
-      </c>
-      <c r="P6">
-        <v>0.01238161622251906</v>
-      </c>
-      <c r="Q6">
-        <v>1.316262790744</v>
-      </c>
-      <c r="R6">
-        <v>11.846365116696</v>
-      </c>
-      <c r="S6">
-        <v>0.005907131991136452</v>
-      </c>
-      <c r="T6">
-        <v>0.005907131991136452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.841048</v>
-      </c>
-      <c r="I7">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J7">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>155.9453076666667</v>
-      </c>
-      <c r="N7">
-        <v>467.835923</v>
-      </c>
-      <c r="O7">
-        <v>0.9002246540361518</v>
-      </c>
-      <c r="P7">
-        <v>0.9002246540361518</v>
-      </c>
-      <c r="Q7">
-        <v>95.70093226303378</v>
-      </c>
-      <c r="R7">
-        <v>861.3083903673041</v>
-      </c>
-      <c r="S7">
-        <v>0.4294872137447652</v>
-      </c>
-      <c r="T7">
-        <v>0.4294872137447652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.841048</v>
-      </c>
-      <c r="I8">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J8">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>12.315788</v>
-      </c>
-      <c r="N8">
-        <v>36.947364</v>
-      </c>
-      <c r="O8">
-        <v>0.07109528434918362</v>
-      </c>
-      <c r="P8">
-        <v>0.07109528434918362</v>
-      </c>
-      <c r="Q8">
-        <v>7.557985621941333</v>
-      </c>
-      <c r="R8">
-        <v>68.021870597472</v>
-      </c>
-      <c r="S8">
-        <v>0.03391877288476979</v>
-      </c>
-      <c r="T8">
-        <v>0.03391877288476979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.6136826666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.841048</v>
-      </c>
-      <c r="I9">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="J9">
-        <v>0.4770889264353757</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.823368666666667</v>
-      </c>
-      <c r="N9">
-        <v>8.470105999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.0162984453921456</v>
-      </c>
-      <c r="P9">
-        <v>0.0162984453921456</v>
-      </c>
-      <c r="Q9">
-        <v>1.732652412343111</v>
-      </c>
-      <c r="R9">
-        <v>15.593871711088</v>
-      </c>
-      <c r="S9">
-        <v>0.007775807814704341</v>
-      </c>
-      <c r="T9">
-        <v>0.00777580781470434</v>
+        <v>0.004641576083475561</v>
       </c>
     </row>
   </sheetData>
